--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_289__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_289__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5423,7 +5423,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.49521255493164</c:v>
+                  <c:v>47.49520874023438</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31.88840866088867</c:v>
@@ -5459,7 +5459,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.42086791992188</c:v>
+                  <c:v>47.42086029052734</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.935276985168457</c:v>
@@ -5483,7 +5483,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.10761260986328</c:v>
+                  <c:v>37.10762023925781</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.714467465877533</c:v>
@@ -5513,7 +5513,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.42794990539551</c:v>
+                  <c:v>28.42795372009277</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.714467465877533</c:v>
@@ -5528,16 +5528,16 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30.73892593383789</c:v>
+                  <c:v>30.73892784118652</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52.57009887695312</c:v>
+                  <c:v>52.57009124755859</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.32041931152344</c:v>
+                  <c:v>47.3204231262207</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.714467465877533</c:v>
@@ -5549,19 +5549,19 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.66766357421875</c:v>
+                  <c:v>5.667665004730225</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.69235610961914</c:v>
+                  <c:v>47.69235992431641</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45.6163215637207</c:v>
+                  <c:v>45.61632919311523</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.714467465877533</c:v>
@@ -5588,7 +5588,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>23.83851051330566</c:v>
+                  <c:v>23.8385124206543</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.714467465877533</c:v>
@@ -5606,7 +5606,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.9133243560791</c:v>
+                  <c:v>18.91332626342773</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.714467465877533</c:v>
@@ -5618,7 +5618,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49.27326583862305</c:v>
+                  <c:v>49.27326202392578</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.714467465877533</c:v>
@@ -5639,7 +5639,7 @@
                   <c:v>56.38760757446289</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46.57545471191406</c:v>
+                  <c:v>46.57545852661133</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.714467465877533</c:v>
@@ -5672,7 +5672,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40.90326690673828</c:v>
+                  <c:v>40.90327072143555</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.714467465877533</c:v>
@@ -5684,7 +5684,7 @@
                   <c:v>0.714467465877533</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.371740341186523</c:v>
+                  <c:v>9.371737480163574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,7 +6443,7 @@
         <v>48.4769</v>
       </c>
       <c r="F4">
-        <v>47.49521255493164</v>
+        <v>47.49520874023438</v>
       </c>
       <c r="G4">
         <v>81</v>
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>47.42086791992188</v>
+        <v>47.42086029052734</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>37.10761260986328</v>
+        <v>37.10762023925781</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>28.42794990539551</v>
+        <v>28.42795372009277</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>30.73892593383789</v>
+        <v>30.73892784118652</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>52.57009887695312</v>
+        <v>52.57009124755859</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>47.32041931152344</v>
+        <v>47.3204231262207</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>5.66766357421875</v>
+        <v>5.667665004730225</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>47.69235610961914</v>
+        <v>47.69235992431641</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>45.6163215637207</v>
+        <v>45.61632919311523</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>23.83851051330566</v>
+        <v>23.8385124206543</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>18.9133243560791</v>
+        <v>18.91332626342773</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.8632</v>
       </c>
       <c r="F69">
-        <v>49.27326583862305</v>
+        <v>49.27326202392578</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>46.57545471191406</v>
+        <v>46.57545852661133</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>40.90326690673828</v>
+        <v>40.90327072143555</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>9.371740341186523</v>
+        <v>9.371737480163574</v>
       </c>
     </row>
     <row r="92" spans="1:6">
